--- a/interface_etiquetagem_tweets/Joker.xlsx
+++ b/interface_etiquetagem_tweets/Joker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudle\P1_Cdados_BW\interface_etiquetagem_tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA65E852-20AA-413E-B6C9-AAE4B417F22B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DEB9AF-84CB-4E13-AB21-88882F7344AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="2760" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
